--- a/Code/Results/Cases/Case_1_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.13959671768049</v>
+        <v>13.19694982948556</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.680428682601697</v>
+        <v>5.018955193107012</v>
       </c>
       <c r="E2">
-        <v>10.60913419045995</v>
+        <v>16.61403878198083</v>
       </c>
       <c r="F2">
-        <v>18.75301525053708</v>
+        <v>24.83750444975048</v>
       </c>
       <c r="G2">
-        <v>2.08253706583305</v>
+        <v>3.63440757364232</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.37934390494892</v>
+        <v>26.36578563139043</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.63717753045594</v>
+        <v>9.604211389286807</v>
       </c>
       <c r="L2">
-        <v>6.241998342819196</v>
+        <v>9.134117306044917</v>
       </c>
       <c r="M2">
-        <v>9.503011829853868</v>
+        <v>14.20287480544433</v>
       </c>
       <c r="N2">
-        <v>13.06824351618864</v>
+        <v>20.01139299716783</v>
       </c>
       <c r="O2">
-        <v>14.97139457665578</v>
+        <v>22.22881989655433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.58358257194832</v>
+        <v>13.09555754905248</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.529914259107913</v>
+        <v>4.966380610283188</v>
       </c>
       <c r="E3">
-        <v>10.68745986251056</v>
+        <v>16.64931619423525</v>
       </c>
       <c r="F3">
-        <v>18.29553686839031</v>
+        <v>24.83341257061285</v>
       </c>
       <c r="G3">
-        <v>2.087012734143284</v>
+        <v>3.636150263713091</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.60479852496075</v>
+        <v>26.46605124668061</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.92580817980553</v>
+        <v>9.269166079757039</v>
       </c>
       <c r="L3">
-        <v>6.062108617520348</v>
+        <v>9.1212585355496</v>
       </c>
       <c r="M3">
-        <v>9.232206982318223</v>
+        <v>14.18199927643133</v>
       </c>
       <c r="N3">
-        <v>13.25548897933949</v>
+        <v>20.06926173789802</v>
       </c>
       <c r="O3">
-        <v>14.83523469778269</v>
+        <v>22.27406301617595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.2304644482956</v>
+        <v>13.03515972027106</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.434344859151013</v>
+        <v>4.933281430996626</v>
       </c>
       <c r="E4">
-        <v>10.73799495459462</v>
+        <v>16.6722560046838</v>
       </c>
       <c r="F4">
-        <v>18.02468585963815</v>
+        <v>24.83726515853857</v>
       </c>
       <c r="G4">
-        <v>2.089852190388058</v>
+        <v>3.637278127621229</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.75152631831312</v>
+        <v>26.53148674962478</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.46786847846232</v>
+        <v>9.055203005754276</v>
       </c>
       <c r="L4">
-        <v>5.951599413844407</v>
+        <v>9.114737649134753</v>
       </c>
       <c r="M4">
-        <v>9.065310582624473</v>
+        <v>14.17110444140048</v>
       </c>
       <c r="N4">
-        <v>13.37328780301805</v>
+        <v>20.10649778878538</v>
       </c>
       <c r="O4">
-        <v>14.76303511455689</v>
+        <v>22.30653928343834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.08380053115234</v>
+        <v>13.01103689166918</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.394639138354024</v>
+        <v>4.919593369946415</v>
       </c>
       <c r="E5">
-        <v>10.7592008540554</v>
+        <v>16.6819266902098</v>
       </c>
       <c r="F5">
-        <v>17.91694645017508</v>
+        <v>24.84043686187678</v>
       </c>
       <c r="G5">
-        <v>2.091032701314842</v>
+        <v>3.637752331450986</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.81336007060437</v>
+        <v>26.55912693079324</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.27602725447277</v>
+        <v>8.966015420158014</v>
       </c>
       <c r="L5">
-        <v>5.906615397420599</v>
+        <v>9.11242824386391</v>
       </c>
       <c r="M5">
-        <v>8.997240896817527</v>
+        <v>14.16715196396841</v>
       </c>
       <c r="N5">
-        <v>13.42201986928463</v>
+        <v>20.1221015874313</v>
       </c>
       <c r="O5">
-        <v>14.73642342202869</v>
+        <v>22.32095291295598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.05928600732864</v>
+        <v>13.00706154339875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.388001120300447</v>
+        <v>4.917308579172717</v>
       </c>
       <c r="E6">
-        <v>10.76275902007676</v>
+        <v>16.68355200435281</v>
       </c>
       <c r="F6">
-        <v>17.89921857914459</v>
+        <v>24.84106027651839</v>
       </c>
       <c r="G6">
-        <v>2.091230150452864</v>
+        <v>3.63783195515338</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.82374953202548</v>
+        <v>26.56377546111394</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.24385961113556</v>
+        <v>8.95108776817526</v>
       </c>
       <c r="L6">
-        <v>5.899150732747596</v>
+        <v>9.112065844631831</v>
       </c>
       <c r="M6">
-        <v>8.985937435827486</v>
+        <v>14.16652519129073</v>
       </c>
       <c r="N6">
-        <v>13.43015624132843</v>
+        <v>20.12471858136792</v>
       </c>
       <c r="O6">
-        <v>14.73217249475237</v>
+        <v>22.32341745480833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.22849742102631</v>
+        <v>13.03483237887692</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.433812407499623</v>
+        <v>4.933097630497818</v>
       </c>
       <c r="E7">
-        <v>10.73827846718286</v>
+        <v>16.67238511991767</v>
       </c>
       <c r="F7">
-        <v>18.02322204164487</v>
+        <v>24.83730144704975</v>
       </c>
       <c r="G7">
-        <v>2.089868015827042</v>
+        <v>3.637284463764962</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.75235202330123</v>
+        <v>26.53185556692961</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.46530226616701</v>
+        <v>9.054008163783672</v>
       </c>
       <c r="L7">
-        <v>5.950992457570623</v>
+        <v>9.114705092142799</v>
       </c>
       <c r="M7">
-        <v>9.06439267272401</v>
+        <v>14.17104915927751</v>
       </c>
       <c r="N7">
-        <v>13.37394205112468</v>
+        <v>20.10670648518769</v>
       </c>
       <c r="O7">
-        <v>14.76266492208319</v>
+        <v>22.30672889832219</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.95041649520875</v>
+        <v>13.16161811983395</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.629204100791847</v>
+        <v>5.001000764131499</v>
       </c>
       <c r="E8">
-        <v>10.63563268359967</v>
+        <v>16.62593740533822</v>
       </c>
       <c r="F8">
-        <v>18.59325975985104</v>
+        <v>24.83477354681614</v>
       </c>
       <c r="G8">
-        <v>2.084061576260613</v>
+        <v>3.63499647423827</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.45532981761703</v>
+        <v>26.3995542009432</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.39633734714989</v>
+        <v>9.490442359723986</v>
       </c>
       <c r="L8">
-        <v>6.180021125355021</v>
+        <v>9.129399769120905</v>
       </c>
       <c r="M8">
-        <v>9.409824488689331</v>
+        <v>14.19528016621901</v>
       </c>
       <c r="N8">
-        <v>13.13222874503678</v>
+        <v>20.03099312465716</v>
       </c>
       <c r="O8">
-        <v>14.92204766237689</v>
+        <v>22.2434439115711</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.26651520292403</v>
+        <v>13.42395005920364</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.986097827419798</v>
+        <v>5.127417190921816</v>
       </c>
       <c r="E9">
-        <v>10.45382465107816</v>
+        <v>16.54496703463045</v>
       </c>
       <c r="F9">
-        <v>19.78577749917419</v>
+        <v>24.88022220087881</v>
       </c>
       <c r="G9">
-        <v>2.073379722467229</v>
+        <v>3.630966680224001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.94096771545788</v>
+        <v>26.17078717036733</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.05120082445825</v>
+        <v>10.27792187222862</v>
       </c>
       <c r="L9">
-        <v>6.626092017888297</v>
+        <v>9.169013036551664</v>
       </c>
       <c r="M9">
-        <v>10.0782636463717</v>
+        <v>14.25787914843129</v>
       </c>
       <c r="N9">
-        <v>12.67988804484983</v>
+        <v>19.89598677115033</v>
       </c>
       <c r="O9">
-        <v>15.32728441291868</v>
+        <v>22.15667937800327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.1657374842562</v>
+        <v>13.62361609878917</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.230848698652806</v>
+        <v>5.215863124657283</v>
       </c>
       <c r="E10">
-        <v>10.33228786573923</v>
+        <v>16.49159136450055</v>
       </c>
       <c r="F10">
-        <v>20.70074134855166</v>
+        <v>24.94414503127862</v>
       </c>
       <c r="G10">
-        <v>2.065931270115179</v>
+        <v>3.628281719608804</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.6080537622188</v>
+        <v>26.02134688326899</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.16003714130613</v>
+        <v>10.8114053319757</v>
       </c>
       <c r="L10">
-        <v>6.948770476311903</v>
+        <v>9.204542060127089</v>
       </c>
       <c r="M10">
-        <v>10.55898576606759</v>
+        <v>14.31281624286094</v>
       </c>
       <c r="N10">
-        <v>12.35959543725245</v>
+        <v>19.80492747612582</v>
       </c>
       <c r="O10">
-        <v>15.68406618631464</v>
+        <v>22.11577767083952</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.5590683871986</v>
+        <v>13.71564213576808</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.338156562398908</v>
+        <v>5.255071694363112</v>
       </c>
       <c r="E11">
-        <v>10.27965758008294</v>
+        <v>16.46862578537777</v>
       </c>
       <c r="F11">
-        <v>21.12406047367143</v>
+        <v>24.97978963507353</v>
       </c>
       <c r="G11">
-        <v>2.062622539908122</v>
+        <v>3.627119530471496</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.46724753238084</v>
+        <v>25.95739555954376</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.64094169772662</v>
+        <v>11.04373674440557</v>
       </c>
       <c r="L11">
-        <v>7.093889196548078</v>
+        <v>9.222062663417628</v>
       </c>
       <c r="M11">
-        <v>10.77452586972849</v>
+        <v>14.33969253923082</v>
       </c>
       <c r="N11">
-        <v>12.21623149753804</v>
+        <v>19.76525049086176</v>
       </c>
       <c r="O11">
-        <v>15.85961376858792</v>
+        <v>22.10214284452177</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.70568684516613</v>
+        <v>13.75063551991741</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.37819481176973</v>
+        <v>5.26976610331241</v>
       </c>
       <c r="E12">
-        <v>10.26011489334748</v>
+        <v>16.46011761956542</v>
       </c>
       <c r="F12">
-        <v>21.28527737097609</v>
+        <v>24.9942240650741</v>
       </c>
       <c r="G12">
-        <v>2.061380452639274</v>
+        <v>3.626687908793365</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.41554046290738</v>
+        <v>25.93375744779722</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.81965599738591</v>
+        <v>11.13018596053836</v>
       </c>
       <c r="L12">
-        <v>7.148560196824236</v>
+        <v>9.228889047086817</v>
       </c>
       <c r="M12">
-        <v>10.85562833375943</v>
+        <v>14.35013556674501</v>
       </c>
       <c r="N12">
-        <v>12.16225652278409</v>
+        <v>19.75047571274219</v>
       </c>
       <c r="O12">
-        <v>15.92801939284381</v>
+        <v>22.09769503873589</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.6742143327095</v>
+        <v>13.74309304468787</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.36959865506309</v>
+        <v>5.266608290889866</v>
       </c>
       <c r="E13">
-        <v>10.2643064470493</v>
+        <v>16.46194163776756</v>
       </c>
       <c r="F13">
-        <v>21.25051729665127</v>
+        <v>24.99107382955119</v>
       </c>
       <c r="G13">
-        <v>2.061647485258788</v>
+        <v>3.62678048999873</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.42660334053004</v>
+        <v>25.93882260229137</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.7813177198808</v>
+        <v>11.11163619923438</v>
       </c>
       <c r="L13">
-        <v>7.136798992511912</v>
+        <v>9.22741039629388</v>
       </c>
       <c r="M13">
-        <v>10.8381854709646</v>
+        <v>14.34787475381506</v>
       </c>
       <c r="N13">
-        <v>12.17386741222098</v>
+        <v>19.75364662237658</v>
       </c>
       <c r="O13">
-        <v>15.91320084982404</v>
+        <v>22.09862113079035</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.57117774246757</v>
+        <v>13.7185183089499</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.341462586454131</v>
+        <v>5.256283709938481</v>
       </c>
       <c r="E14">
-        <v>10.27804199804798</v>
+        <v>16.46792204181024</v>
       </c>
       <c r="F14">
-        <v>21.13730611202196</v>
+        <v>24.98095844094777</v>
       </c>
       <c r="G14">
-        <v>2.062520138554505</v>
+        <v>3.627083851093512</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.46296072225303</v>
+        <v>25.95543923991768</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.6557126876749</v>
+        <v>11.05087984450035</v>
       </c>
       <c r="L14">
-        <v>7.098392894267593</v>
+        <v>9.222620453274761</v>
       </c>
       <c r="M14">
-        <v>10.78120894877202</v>
+        <v>14.34054640375822</v>
       </c>
       <c r="N14">
-        <v>12.21178478716615</v>
+        <v>19.76402995608451</v>
       </c>
       <c r="O14">
-        <v>15.86520274218837</v>
+        <v>22.10176258130391</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.50776007211148</v>
+        <v>13.70348367041534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.324150225973318</v>
+        <v>5.249939517465096</v>
       </c>
       <c r="E15">
-        <v>10.28650601783854</v>
+        <v>16.47160972559675</v>
       </c>
       <c r="F15">
-        <v>21.06807721248225</v>
+        <v>24.97488420156158</v>
       </c>
       <c r="G15">
-        <v>2.063056059694635</v>
+        <v>3.627270770905429</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.48544337209649</v>
+        <v>25.96569277810073</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.57833378476203</v>
+        <v>11.01346449841459</v>
       </c>
       <c r="L15">
-        <v>7.074830118917781</v>
+        <v>9.219711331003989</v>
       </c>
       <c r="M15">
-        <v>10.7462399090637</v>
+        <v>14.33609199291388</v>
       </c>
       <c r="N15">
-        <v>12.2350504574416</v>
+        <v>19.77042257767357</v>
       </c>
       <c r="O15">
-        <v>15.83605446441351</v>
+        <v>22.10377998700087</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.13970991064035</v>
+        <v>13.61762376049848</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.223753233310037</v>
+        <v>5.213279634009146</v>
       </c>
       <c r="E16">
-        <v>10.33578127342344</v>
+        <v>16.49311862290035</v>
       </c>
       <c r="F16">
-        <v>20.67321002596536</v>
+        <v>24.94194707272761</v>
       </c>
       <c r="G16">
-        <v>2.06614905562938</v>
+        <v>3.628358859436713</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.61747679259157</v>
+        <v>26.02560728940565</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.12813446247141</v>
+        <v>10.79600997496144</v>
       </c>
       <c r="L16">
-        <v>6.939249305106847</v>
+        <v>9.203424075589117</v>
       </c>
       <c r="M16">
-        <v>10.54483066172516</v>
+        <v>14.31109728116436</v>
       </c>
       <c r="N16">
-        <v>12.36900977605517</v>
+        <v>19.80755550815077</v>
       </c>
       <c r="O16">
-        <v>15.67286250371343</v>
+        <v>22.11676882960297</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.90984271808078</v>
+        <v>13.56523887598572</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.1611174677095</v>
+        <v>5.19052324932217</v>
       </c>
       <c r="E17">
-        <v>10.36669408225412</v>
+        <v>16.50664998416531</v>
       </c>
       <c r="F17">
-        <v>20.43271153214915</v>
+        <v>24.92341784933583</v>
       </c>
       <c r="G17">
-        <v>2.068066488448229</v>
+        <v>3.629041503342257</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.70125649166408</v>
+        <v>26.06339458428956</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.84591764460414</v>
+        <v>10.65992612541241</v>
       </c>
       <c r="L17">
-        <v>6.855615608272833</v>
+        <v>9.193777754500752</v>
       </c>
       <c r="M17">
-        <v>10.42041834522962</v>
+        <v>14.29624281564969</v>
       </c>
       <c r="N17">
-        <v>12.45177287890533</v>
+        <v>19.8307818618856</v>
       </c>
       <c r="O17">
-        <v>15.5761612167207</v>
+        <v>22.12601085911712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.77615148142648</v>
+        <v>13.53522276395211</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.124712524992811</v>
+        <v>5.177338131125575</v>
       </c>
       <c r="E18">
-        <v>10.38472408899453</v>
+        <v>16.51455670925689</v>
       </c>
       <c r="F18">
-        <v>20.29505697510353</v>
+        <v>24.91337885821029</v>
       </c>
       <c r="G18">
-        <v>2.069176875490458</v>
+        <v>3.629439717867527</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.75044018156217</v>
+        <v>26.08550817651836</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.68138115626203</v>
+        <v>10.58068189840657</v>
       </c>
       <c r="L18">
-        <v>6.807356794709514</v>
+        <v>9.188357521200526</v>
       </c>
       <c r="M18">
-        <v>10.34856732302897</v>
+        <v>14.28787670491828</v>
       </c>
       <c r="N18">
-        <v>12.49959757812799</v>
+        <v>19.8443054847262</v>
       </c>
       <c r="O18">
-        <v>15.52178678701594</v>
+        <v>22.13179456724443</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.73063437762938</v>
+        <v>13.5250802744411</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.112321997987286</v>
+        <v>5.172857516497493</v>
       </c>
       <c r="E19">
-        <v>10.39087149499744</v>
+        <v>16.5172550833553</v>
       </c>
       <c r="F19">
-        <v>20.24856860917334</v>
+        <v>24.91008627283133</v>
       </c>
       <c r="G19">
-        <v>2.069554144259749</v>
+        <v>3.629575505357629</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.76726155691492</v>
+        <v>26.093060630157</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.62529243250294</v>
+        <v>10.55368549430796</v>
       </c>
       <c r="L19">
-        <v>6.790991953564887</v>
+        <v>9.186544427092763</v>
       </c>
       <c r="M19">
-        <v>10.32419172350113</v>
+        <v>14.28507478239966</v>
       </c>
       <c r="N19">
-        <v>12.51582891658868</v>
+        <v>19.84891262684163</v>
       </c>
       <c r="O19">
-        <v>15.5035896394607</v>
+        <v>22.13383317961072</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.9344659331452</v>
+        <v>13.57080370332516</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.167824459515419</v>
+        <v>5.192955706977612</v>
       </c>
       <c r="E20">
-        <v>10.36337747534229</v>
+        <v>16.50519673563316</v>
       </c>
       <c r="F20">
-        <v>20.45824406578107</v>
+        <v>24.92532635260855</v>
       </c>
       <c r="G20">
-        <v>2.067861599253145</v>
+        <v>3.628968257953793</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.69223435725529</v>
+        <v>26.05933280657554</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.8761892528129</v>
+        <v>10.67451343699677</v>
       </c>
       <c r="L20">
-        <v>6.864534914560575</v>
+        <v>9.194791392023614</v>
       </c>
       <c r="M20">
-        <v>10.43369300737075</v>
+        <v>14.29780573798681</v>
       </c>
       <c r="N20">
-        <v>12.44293983458077</v>
+        <v>19.82829236602011</v>
       </c>
       <c r="O20">
-        <v>15.58632612557604</v>
+        <v>22.1249785948952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.60150569934142</v>
+        <v>13.72573278144441</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.349743157288396</v>
+        <v>5.25932048562132</v>
       </c>
       <c r="E21">
-        <v>10.27399697887733</v>
+        <v>16.46616034486077</v>
       </c>
       <c r="F21">
-        <v>21.17053493469165</v>
+        <v>24.98390422280954</v>
       </c>
       <c r="G21">
-        <v>2.062263529348387</v>
+        <v>3.626994516923063</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.45223718997736</v>
+        <v>25.95054282511569</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.69269809280903</v>
+        <v>11.06876727140208</v>
       </c>
       <c r="L21">
-        <v>7.10968166931049</v>
+        <v>9.224022202360244</v>
       </c>
       <c r="M21">
-        <v>10.79795887844665</v>
+        <v>14.34269175593133</v>
       </c>
       <c r="N21">
-        <v>12.20063920270116</v>
+        <v>19.76097334200556</v>
       </c>
       <c r="O21">
-        <v>15.87924840552437</v>
+        <v>22.10082044278452</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.02386862783402</v>
+        <v>13.82782122956349</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.465152011230566</v>
+        <v>5.301799334260926</v>
       </c>
       <c r="E22">
-        <v>10.21784186447814</v>
+        <v>16.4417456138814</v>
       </c>
       <c r="F22">
-        <v>21.6413510111083</v>
+        <v>25.02764311998782</v>
       </c>
       <c r="G22">
-        <v>2.058667850982885</v>
+        <v>3.625753938145325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.30483287337122</v>
+        <v>25.88281609972666</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.20655268292404</v>
+        <v>11.31750380944726</v>
       </c>
       <c r="L22">
-        <v>7.268237773635859</v>
+        <v>9.244241859357713</v>
       </c>
       <c r="M22">
-        <v>11.0329836864851</v>
+        <v>14.37357249668777</v>
       </c>
       <c r="N22">
-        <v>12.04409970290835</v>
+        <v>19.71843336775485</v>
       </c>
       <c r="O22">
-        <v>16.08194572905703</v>
+        <v>22.08920163872549</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.79970654222182</v>
+        <v>13.77326738141273</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.403880136720395</v>
+        <v>5.279211177534098</v>
       </c>
       <c r="E23">
-        <v>10.24760419413241</v>
+        <v>16.45467600679641</v>
       </c>
       <c r="F23">
-        <v>21.38961542558541</v>
+        <v>25.00380251573904</v>
       </c>
       <c r="G23">
-        <v>2.060581373384736</v>
+        <v>3.626411553894048</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.38261110198523</v>
+        <v>25.91865461771329</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.93411061380149</v>
+        <v>11.18557774531777</v>
       </c>
       <c r="L23">
-        <v>7.183778048453536</v>
+        <v>9.233349408672877</v>
       </c>
       <c r="M23">
-        <v>10.90784490231872</v>
+        <v>14.35695137384748</v>
       </c>
       <c r="N23">
-        <v>12.12748918233918</v>
+        <v>19.74100480244796</v>
       </c>
       <c r="O23">
-        <v>15.97272531641509</v>
+        <v>22.09502118015137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.92333856153544</v>
+        <v>13.56828752930121</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.164793456912895</v>
+        <v>5.191856310687873</v>
       </c>
       <c r="E24">
-        <v>10.3648761106495</v>
+        <v>16.50585335253039</v>
       </c>
       <c r="F24">
-        <v>20.44669889534073</v>
+        <v>24.92446160606883</v>
       </c>
       <c r="G24">
-        <v>2.067954204604306</v>
+        <v>3.629001354269572</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.6963101007593</v>
+        <v>26.06116792398695</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.86251057889891</v>
+        <v>10.66792164940908</v>
       </c>
       <c r="L24">
-        <v>6.860503043263106</v>
+        <v>9.194332735106709</v>
       </c>
       <c r="M24">
-        <v>10.42769253897011</v>
+        <v>14.29709859864388</v>
       </c>
       <c r="N24">
-        <v>12.44693249506681</v>
+        <v>19.82941733596966</v>
       </c>
       <c r="O24">
-        <v>15.58172677084492</v>
+        <v>22.12544381649992</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.9219483768912</v>
+        <v>13.35166014049171</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.892521968523845</v>
+        <v>5.09397376330138</v>
       </c>
       <c r="E25">
-        <v>10.50090824848166</v>
+        <v>16.56579437143268</v>
       </c>
       <c r="F25">
-        <v>19.45587350591126</v>
+        <v>24.86254671733787</v>
       </c>
       <c r="G25">
-        <v>2.076197029001305</v>
+        <v>3.63200822164195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.07248951540521</v>
+        <v>26.22939761247352</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.62216064347751</v>
+        <v>10.07258650570863</v>
       </c>
       <c r="L25">
-        <v>6.50609153791205</v>
+        <v>9.157156078381828</v>
       </c>
       <c r="M25">
-        <v>9.898926296703111</v>
+        <v>14.23935441847798</v>
       </c>
       <c r="N25">
-        <v>12.80005617565968</v>
+        <v>19.93107612681066</v>
       </c>
       <c r="O25">
-        <v>15.20744531573034</v>
+        <v>22.17614465161126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19694982948556</v>
+        <v>11.13959671768051</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.018955193107012</v>
+        <v>4.680428682601868</v>
       </c>
       <c r="E2">
-        <v>16.61403878198083</v>
+        <v>10.60913419045995</v>
       </c>
       <c r="F2">
-        <v>24.83750444975048</v>
+        <v>18.75301525053703</v>
       </c>
       <c r="G2">
-        <v>3.63440757364232</v>
+        <v>2.082537065832781</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.36578563139043</v>
+        <v>16.37934390494897</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.604211389286807</v>
+        <v>13.63717753045593</v>
       </c>
       <c r="L2">
-        <v>9.134117306044917</v>
+        <v>6.241998342819173</v>
       </c>
       <c r="M2">
-        <v>14.20287480544433</v>
+        <v>9.503011829853866</v>
       </c>
       <c r="N2">
-        <v>20.01139299716783</v>
+        <v>13.06824351618868</v>
       </c>
       <c r="O2">
-        <v>22.22881989655433</v>
+        <v>14.97139457665579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.09555754905248</v>
+        <v>10.58358257194836</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.966380610283188</v>
+        <v>4.529914259107707</v>
       </c>
       <c r="E3">
-        <v>16.64931619423525</v>
+        <v>10.68745986251083</v>
       </c>
       <c r="F3">
-        <v>24.83341257061285</v>
+        <v>18.29553686839019</v>
       </c>
       <c r="G3">
-        <v>3.636150263713091</v>
+        <v>2.087012734143682</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.46605124668061</v>
+        <v>16.60479852496075</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.269166079757039</v>
+        <v>12.92580817980567</v>
       </c>
       <c r="L3">
-        <v>9.1212585355496</v>
+        <v>6.062108617520289</v>
       </c>
       <c r="M3">
-        <v>14.18199927643133</v>
+        <v>9.232206982318203</v>
       </c>
       <c r="N3">
-        <v>20.06926173789802</v>
+        <v>13.25548897933946</v>
       </c>
       <c r="O3">
-        <v>22.27406301617595</v>
+        <v>14.83523469778249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.03515972027106</v>
+        <v>10.23046444829561</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.933281430996626</v>
+        <v>4.434344859150992</v>
       </c>
       <c r="E4">
-        <v>16.6722560046838</v>
+        <v>10.73799495459469</v>
       </c>
       <c r="F4">
-        <v>24.83726515853857</v>
+        <v>18.02468585963805</v>
       </c>
       <c r="G4">
-        <v>3.637278127621229</v>
+        <v>2.089852190388191</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.53148674962478</v>
+        <v>16.75152631831312</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.055203005754276</v>
+        <v>12.46786847846239</v>
       </c>
       <c r="L4">
-        <v>9.114737649134753</v>
+        <v>5.951599413844366</v>
       </c>
       <c r="M4">
-        <v>14.17110444140048</v>
+        <v>9.065310582624459</v>
       </c>
       <c r="N4">
-        <v>20.10649778878538</v>
+        <v>13.37328780301805</v>
       </c>
       <c r="O4">
-        <v>22.30653928343834</v>
+        <v>14.76303511455682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.01103689166918</v>
+        <v>10.08380053115236</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.919593369946415</v>
+        <v>4.394639138354028</v>
       </c>
       <c r="E5">
-        <v>16.6819266902098</v>
+        <v>10.7592008540554</v>
       </c>
       <c r="F5">
-        <v>24.84043686187678</v>
+        <v>17.9169464501751</v>
       </c>
       <c r="G5">
-        <v>3.637752331450986</v>
+        <v>2.091032701314842</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.55912693079324</v>
+        <v>16.81336007060438</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.966015420158014</v>
+        <v>12.27602725447277</v>
       </c>
       <c r="L5">
-        <v>9.11242824386391</v>
+        <v>5.906615397420601</v>
       </c>
       <c r="M5">
-        <v>14.16715196396841</v>
+        <v>8.997240896817535</v>
       </c>
       <c r="N5">
-        <v>20.1221015874313</v>
+        <v>13.42201986928463</v>
       </c>
       <c r="O5">
-        <v>22.32095291295598</v>
+        <v>14.7364234220287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.00706154339875</v>
+        <v>10.05928600732865</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.917308579172717</v>
+        <v>4.388001120300424</v>
       </c>
       <c r="E6">
-        <v>16.68355200435281</v>
+        <v>10.76275902007689</v>
       </c>
       <c r="F6">
-        <v>24.84106027651839</v>
+        <v>17.89921857914451</v>
       </c>
       <c r="G6">
-        <v>3.63783195515338</v>
+        <v>2.091230150452996</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.56377546111394</v>
+        <v>16.82374953202549</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.95108776817526</v>
+        <v>12.24385961113561</v>
       </c>
       <c r="L6">
-        <v>9.112065844631831</v>
+        <v>5.899150732747588</v>
       </c>
       <c r="M6">
-        <v>14.16652519129073</v>
+        <v>8.985937435827486</v>
       </c>
       <c r="N6">
-        <v>20.12471858136792</v>
+        <v>13.43015624132843</v>
       </c>
       <c r="O6">
-        <v>22.32341745480833</v>
+        <v>14.73217249475229</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.03483237887692</v>
+        <v>10.2284974210263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.933097630497818</v>
+        <v>4.433812407499507</v>
       </c>
       <c r="E7">
-        <v>16.67238511991767</v>
+        <v>10.73827846718293</v>
       </c>
       <c r="F7">
-        <v>24.83730144704975</v>
+        <v>18.02322204164477</v>
       </c>
       <c r="G7">
-        <v>3.637284463764962</v>
+        <v>2.089868015827309</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.53185556692961</v>
+        <v>16.75235202330105</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.054008163783672</v>
+        <v>12.46530226616706</v>
       </c>
       <c r="L7">
-        <v>9.114705092142799</v>
+        <v>5.950992457570629</v>
       </c>
       <c r="M7">
-        <v>14.17104915927751</v>
+        <v>9.06439267272401</v>
       </c>
       <c r="N7">
-        <v>20.10670648518769</v>
+        <v>13.37394205112457</v>
       </c>
       <c r="O7">
-        <v>22.30672889832219</v>
+        <v>14.76266492208305</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.16161811983395</v>
+        <v>10.95041649520878</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.001000764131499</v>
+        <v>4.629204100791838</v>
       </c>
       <c r="E8">
-        <v>16.62593740533822</v>
+        <v>10.63563268359981</v>
       </c>
       <c r="F8">
-        <v>24.83477354681614</v>
+        <v>18.59325975985078</v>
       </c>
       <c r="G8">
-        <v>3.63499647423827</v>
+        <v>2.084061576261014</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.3995542009432</v>
+        <v>16.45532981761692</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.490442359723986</v>
+        <v>13.39633734715002</v>
       </c>
       <c r="L8">
-        <v>9.129399769120905</v>
+        <v>6.180021125354999</v>
       </c>
       <c r="M8">
-        <v>14.19528016621901</v>
+        <v>9.409824488689301</v>
       </c>
       <c r="N8">
-        <v>20.03099312465716</v>
+        <v>13.13222874503671</v>
       </c>
       <c r="O8">
-        <v>22.2434439115711</v>
+        <v>14.92204766237665</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.42395005920364</v>
+        <v>12.26651520292402</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.127417190921816</v>
+        <v>4.986097827419895</v>
       </c>
       <c r="E9">
-        <v>16.54496703463045</v>
+        <v>10.45382465107829</v>
       </c>
       <c r="F9">
-        <v>24.88022220087881</v>
+        <v>19.78577749917397</v>
       </c>
       <c r="G9">
-        <v>3.630966680224001</v>
+        <v>2.073379722467096</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.17078717036733</v>
+        <v>15.94096771545775</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.27792187222862</v>
+        <v>15.0512008244583</v>
       </c>
       <c r="L9">
-        <v>9.169013036551664</v>
+        <v>6.626092017888285</v>
       </c>
       <c r="M9">
-        <v>14.25787914843129</v>
+        <v>10.07826364637171</v>
       </c>
       <c r="N9">
-        <v>19.89598677115033</v>
+        <v>12.67988804484973</v>
       </c>
       <c r="O9">
-        <v>22.15667937800327</v>
+        <v>15.32728441291852</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.62361609878917</v>
+        <v>13.16573748425621</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.215863124657283</v>
+        <v>5.230848698652705</v>
       </c>
       <c r="E10">
-        <v>16.49159136450055</v>
+        <v>10.3322878657393</v>
       </c>
       <c r="F10">
-        <v>24.94414503127862</v>
+        <v>20.70074134855166</v>
       </c>
       <c r="G10">
-        <v>3.628281719608804</v>
+        <v>2.065931270115045</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.02134688326899</v>
+        <v>15.60805376221879</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.8114053319757</v>
+        <v>16.16003714130617</v>
       </c>
       <c r="L10">
-        <v>9.204542060127089</v>
+        <v>6.94877047631192</v>
       </c>
       <c r="M10">
-        <v>14.31281624286094</v>
+        <v>10.55898576606758</v>
       </c>
       <c r="N10">
-        <v>19.80492747612582</v>
+        <v>12.35959543725245</v>
       </c>
       <c r="O10">
-        <v>22.11577767083952</v>
+        <v>15.6840661863146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.71564213576808</v>
+        <v>13.55906838719862</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.255071694363112</v>
+        <v>5.338156562398909</v>
       </c>
       <c r="E11">
-        <v>16.46862578537777</v>
+        <v>10.27965758008294</v>
       </c>
       <c r="F11">
-        <v>24.97978963507353</v>
+        <v>21.12406047367145</v>
       </c>
       <c r="G11">
-        <v>3.627119530471496</v>
+        <v>2.062622539908523</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.95739555954376</v>
+        <v>15.46724753238093</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.04373674440557</v>
+        <v>16.64094169772662</v>
       </c>
       <c r="L11">
-        <v>9.222062663417628</v>
+        <v>7.093889196548058</v>
       </c>
       <c r="M11">
-        <v>14.33969253923082</v>
+        <v>10.7745258697285</v>
       </c>
       <c r="N11">
-        <v>19.76525049086176</v>
+        <v>12.21623149753808</v>
       </c>
       <c r="O11">
-        <v>22.10214284452177</v>
+        <v>15.85961376858794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.75063551991741</v>
+        <v>13.70568684516613</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.26976610331241</v>
+        <v>5.378194811769667</v>
       </c>
       <c r="E12">
-        <v>16.46011761956542</v>
+        <v>10.26011489334755</v>
       </c>
       <c r="F12">
-        <v>24.9942240650741</v>
+        <v>21.28527737097604</v>
       </c>
       <c r="G12">
-        <v>3.626687908793365</v>
+        <v>2.061380452639544</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.93375744779722</v>
+        <v>15.41554046290738</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.13018596053836</v>
+        <v>16.81965599738599</v>
       </c>
       <c r="L12">
-        <v>9.228889047086817</v>
+        <v>7.148560196824226</v>
       </c>
       <c r="M12">
-        <v>14.35013556674501</v>
+        <v>10.85562833375942</v>
       </c>
       <c r="N12">
-        <v>19.75047571274219</v>
+        <v>12.16225652278409</v>
       </c>
       <c r="O12">
-        <v>22.09769503873589</v>
+        <v>15.92801939284376</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.74309304468787</v>
+        <v>13.67421433270951</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.266608290889866</v>
+        <v>5.36959865506313</v>
       </c>
       <c r="E13">
-        <v>16.46194163776756</v>
+        <v>10.26430644704937</v>
       </c>
       <c r="F13">
-        <v>24.99107382955119</v>
+        <v>21.25051729665133</v>
       </c>
       <c r="G13">
-        <v>3.62678048999873</v>
+        <v>2.061647485258788</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.93882260229137</v>
+        <v>15.4266033405301</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.11163619923438</v>
+        <v>16.78131771988073</v>
       </c>
       <c r="L13">
-        <v>9.22741039629388</v>
+        <v>7.136798992511912</v>
       </c>
       <c r="M13">
-        <v>14.34787475381506</v>
+        <v>10.83818547096464</v>
       </c>
       <c r="N13">
-        <v>19.75364662237658</v>
+        <v>12.17386741222101</v>
       </c>
       <c r="O13">
-        <v>22.09862113079035</v>
+        <v>15.91320084982413</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.7185183089499</v>
+        <v>13.57117774246759</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.256283709938481</v>
+        <v>5.341462586454139</v>
       </c>
       <c r="E14">
-        <v>16.46792204181024</v>
+        <v>10.27804199804818</v>
       </c>
       <c r="F14">
-        <v>24.98095844094777</v>
+        <v>21.13730611202183</v>
       </c>
       <c r="G14">
-        <v>3.627083851093512</v>
+        <v>2.062520138554905</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.95543923991768</v>
+        <v>15.46296072225295</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.05087984450035</v>
+        <v>16.65571268767501</v>
       </c>
       <c r="L14">
-        <v>9.222620453274761</v>
+        <v>7.098392894267555</v>
       </c>
       <c r="M14">
-        <v>14.34054640375822</v>
+        <v>10.78120894877201</v>
       </c>
       <c r="N14">
-        <v>19.76402995608451</v>
+        <v>12.21178478716609</v>
       </c>
       <c r="O14">
-        <v>22.10176258130391</v>
+        <v>15.86520274218824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.70348367041534</v>
+        <v>13.50776007211149</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.249939517465096</v>
+        <v>5.324150225973423</v>
       </c>
       <c r="E15">
-        <v>16.47160972559675</v>
+        <v>10.28650601783841</v>
       </c>
       <c r="F15">
-        <v>24.97488420156158</v>
+        <v>21.0680772124822</v>
       </c>
       <c r="G15">
-        <v>3.627270770905429</v>
+        <v>2.063056059694234</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.96569277810073</v>
+        <v>15.48544337209647</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.01346449841459</v>
+        <v>16.578333784762</v>
       </c>
       <c r="L15">
-        <v>9.219711331003989</v>
+        <v>7.074830118917756</v>
       </c>
       <c r="M15">
-        <v>14.33609199291388</v>
+        <v>10.7462399090637</v>
       </c>
       <c r="N15">
-        <v>19.77042257767357</v>
+        <v>12.23505045744157</v>
       </c>
       <c r="O15">
-        <v>22.10377998700087</v>
+        <v>15.83605446441348</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.61762376049848</v>
+        <v>13.13970991064036</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.213279634009146</v>
+        <v>5.223753233309929</v>
       </c>
       <c r="E16">
-        <v>16.49311862290035</v>
+        <v>10.33578127342337</v>
       </c>
       <c r="F16">
-        <v>24.94194707272761</v>
+        <v>20.67321002596532</v>
       </c>
       <c r="G16">
-        <v>3.628358859436713</v>
+        <v>2.066149055629378</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.02560728940565</v>
+        <v>15.61747679259146</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.79600997496144</v>
+        <v>16.12813446247143</v>
       </c>
       <c r="L16">
-        <v>9.203424075589117</v>
+        <v>6.939249305106824</v>
       </c>
       <c r="M16">
-        <v>14.31109728116436</v>
+        <v>10.54483066172514</v>
       </c>
       <c r="N16">
-        <v>19.80755550815077</v>
+        <v>12.36900977605504</v>
       </c>
       <c r="O16">
-        <v>22.11676882960297</v>
+        <v>15.67286250371334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.56523887598572</v>
+        <v>12.90984271808074</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.19052324932217</v>
+        <v>5.161117467709478</v>
       </c>
       <c r="E17">
-        <v>16.50664998416531</v>
+        <v>10.36669408225399</v>
       </c>
       <c r="F17">
-        <v>24.92341784933583</v>
+        <v>20.43271153214905</v>
       </c>
       <c r="G17">
-        <v>3.629041503342257</v>
+        <v>2.068066488448363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.06339458428956</v>
+        <v>15.70125649166401</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.65992612541241</v>
+        <v>15.8459176446042</v>
       </c>
       <c r="L17">
-        <v>9.193777754500752</v>
+        <v>6.85561560827276</v>
       </c>
       <c r="M17">
-        <v>14.29624281564969</v>
+        <v>10.42041834522955</v>
       </c>
       <c r="N17">
-        <v>19.8307818618856</v>
+        <v>12.45177287890529</v>
       </c>
       <c r="O17">
-        <v>22.12601085911712</v>
+        <v>15.57616121672062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.53522276395211</v>
+        <v>12.77615148142646</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.177338131125575</v>
+        <v>5.124712524992867</v>
       </c>
       <c r="E18">
-        <v>16.51455670925689</v>
+        <v>10.38472408899453</v>
       </c>
       <c r="F18">
-        <v>24.91337885821029</v>
+        <v>20.29505697510342</v>
       </c>
       <c r="G18">
-        <v>3.629439717867527</v>
+        <v>2.069176875490324</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.08550817651836</v>
+        <v>15.7504401815621</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.58068189840657</v>
+        <v>15.68138115626204</v>
       </c>
       <c r="L18">
-        <v>9.188357521200526</v>
+        <v>6.807356794709493</v>
       </c>
       <c r="M18">
-        <v>14.28787670491828</v>
+        <v>10.34856732302896</v>
       </c>
       <c r="N18">
-        <v>19.8443054847262</v>
+        <v>12.49959757812796</v>
       </c>
       <c r="O18">
-        <v>22.13179456724443</v>
+        <v>15.52178678701586</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.5250802744411</v>
+        <v>12.73063437762939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.172857516497493</v>
+        <v>5.112321997987372</v>
       </c>
       <c r="E19">
-        <v>16.5172550833553</v>
+        <v>10.39087149499758</v>
       </c>
       <c r="F19">
-        <v>24.91008627283133</v>
+        <v>20.24856860917326</v>
       </c>
       <c r="G19">
-        <v>3.629575505357629</v>
+        <v>2.069554144259883</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.093060630157</v>
+        <v>15.7672615569149</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.55368549430796</v>
+        <v>15.62529243250295</v>
       </c>
       <c r="L19">
-        <v>9.186544427092763</v>
+        <v>6.790991953564903</v>
       </c>
       <c r="M19">
-        <v>14.28507478239966</v>
+        <v>10.32419172350114</v>
       </c>
       <c r="N19">
-        <v>19.84891262684163</v>
+        <v>12.51582891658864</v>
       </c>
       <c r="O19">
-        <v>22.13383317961072</v>
+        <v>15.50358963946065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.57080370332516</v>
+        <v>12.93446593314521</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.192955706977612</v>
+        <v>5.167824459515443</v>
       </c>
       <c r="E20">
-        <v>16.50519673563316</v>
+        <v>10.36337747534255</v>
       </c>
       <c r="F20">
-        <v>24.92532635260855</v>
+        <v>20.45824406578095</v>
       </c>
       <c r="G20">
-        <v>3.628968257953793</v>
+        <v>2.067861599253144</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.05933280657554</v>
+        <v>15.69223435725528</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.67451343699677</v>
+        <v>15.87618925281298</v>
       </c>
       <c r="L20">
-        <v>9.194791392023614</v>
+        <v>6.86453491456058</v>
       </c>
       <c r="M20">
-        <v>14.29780573798681</v>
+        <v>10.43369300737077</v>
       </c>
       <c r="N20">
-        <v>19.82829236602011</v>
+        <v>12.44293983458077</v>
       </c>
       <c r="O20">
-        <v>22.1249785948952</v>
+        <v>15.58632612557593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.72573278144441</v>
+        <v>13.60150569934142</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.25932048562132</v>
+        <v>5.349743157288535</v>
       </c>
       <c r="E21">
-        <v>16.46616034486077</v>
+        <v>10.2739969788774</v>
       </c>
       <c r="F21">
-        <v>24.98390422280954</v>
+        <v>21.17053493469155</v>
       </c>
       <c r="G21">
-        <v>3.626994516923063</v>
+        <v>2.062263529348119</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.95054282511569</v>
+        <v>15.45223718997726</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.06876727140208</v>
+        <v>16.69269809280906</v>
       </c>
       <c r="L21">
-        <v>9.224022202360244</v>
+        <v>7.10968166931047</v>
       </c>
       <c r="M21">
-        <v>14.34269175593133</v>
+        <v>10.79795887844665</v>
       </c>
       <c r="N21">
-        <v>19.76097334200556</v>
+        <v>12.2006392027011</v>
       </c>
       <c r="O21">
-        <v>22.10082044278452</v>
+        <v>15.87924840552427</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.82782122956349</v>
+        <v>14.02386862783403</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.301799334260926</v>
+        <v>5.465152011230624</v>
       </c>
       <c r="E22">
-        <v>16.4417456138814</v>
+        <v>10.21784186447814</v>
       </c>
       <c r="F22">
-        <v>25.02764311998782</v>
+        <v>21.64135101110832</v>
       </c>
       <c r="G22">
-        <v>3.625753938145325</v>
+        <v>2.058667850983023</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.88281609972666</v>
+        <v>15.30483287337121</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.31750380944726</v>
+        <v>17.20655268292404</v>
       </c>
       <c r="L22">
-        <v>9.244241859357713</v>
+        <v>7.268237773635883</v>
       </c>
       <c r="M22">
-        <v>14.37357249668777</v>
+        <v>11.03298368648511</v>
       </c>
       <c r="N22">
-        <v>19.71843336775485</v>
+        <v>12.04409970290831</v>
       </c>
       <c r="O22">
-        <v>22.08920163872549</v>
+        <v>16.08194572905702</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.77326738141273</v>
+        <v>13.79970654222183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.279211177534098</v>
+        <v>5.403880136720303</v>
       </c>
       <c r="E23">
-        <v>16.45467600679641</v>
+        <v>10.24760419413242</v>
       </c>
       <c r="F23">
-        <v>25.00380251573904</v>
+        <v>21.38961542558546</v>
       </c>
       <c r="G23">
-        <v>3.626411553894048</v>
+        <v>2.060581373384601</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.91865461771329</v>
+        <v>15.38261110198516</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.18557774531777</v>
+        <v>16.93411061380146</v>
       </c>
       <c r="L23">
-        <v>9.233349408672877</v>
+        <v>7.183778048453565</v>
       </c>
       <c r="M23">
-        <v>14.35695137384748</v>
+        <v>10.90784490231873</v>
       </c>
       <c r="N23">
-        <v>19.74100480244796</v>
+        <v>12.12748918233915</v>
       </c>
       <c r="O23">
-        <v>22.09502118015137</v>
+        <v>15.97272531641509</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.56828752930121</v>
+        <v>12.92333856153542</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.191856310687873</v>
+        <v>5.164793456912762</v>
       </c>
       <c r="E24">
-        <v>16.50585335253039</v>
+        <v>10.36487611064964</v>
       </c>
       <c r="F24">
-        <v>24.92446160606883</v>
+        <v>20.44669889534063</v>
       </c>
       <c r="G24">
-        <v>3.629001354269572</v>
+        <v>2.067954204604306</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.06116792398695</v>
+        <v>15.69631010075919</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.66792164940908</v>
+        <v>15.86251057889905</v>
       </c>
       <c r="L24">
-        <v>9.194332735106709</v>
+        <v>6.860503043263114</v>
       </c>
       <c r="M24">
-        <v>14.29709859864388</v>
+        <v>10.42769253897008</v>
       </c>
       <c r="N24">
-        <v>19.82941733596966</v>
+        <v>12.44693249506678</v>
       </c>
       <c r="O24">
-        <v>22.12544381649992</v>
+        <v>15.58172677084477</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.35166014049171</v>
+        <v>11.92194837689125</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.09397376330138</v>
+        <v>4.892521968523702</v>
       </c>
       <c r="E25">
-        <v>16.56579437143268</v>
+        <v>10.50090824848173</v>
       </c>
       <c r="F25">
-        <v>24.86254671733787</v>
+        <v>19.45587350591119</v>
       </c>
       <c r="G25">
-        <v>3.63200822164195</v>
+        <v>2.076197029001171</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.22939761247352</v>
+        <v>16.07248951540512</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.07258650570863</v>
+        <v>14.62216064347752</v>
       </c>
       <c r="L25">
-        <v>9.157156078381828</v>
+        <v>6.50609153791205</v>
       </c>
       <c r="M25">
-        <v>14.23935441847798</v>
+        <v>9.898926296703129</v>
       </c>
       <c r="N25">
-        <v>19.93107612681066</v>
+        <v>12.80005617565961</v>
       </c>
       <c r="O25">
-        <v>22.17614465161126</v>
+        <v>15.20744531573022</v>
       </c>
     </row>
   </sheetData>
